--- a/src/main/resources/static/directory.xlsx
+++ b/src/main/resources/static/directory.xlsx
@@ -1,82 +1,339 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2386B9D-80A8-4331-9F89-06ECCB921FB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>schema_id</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-setting</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-s-tools</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>企业基础资料</t>
+  </si>
+  <si>
+    <t>el-icon-s-home</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>法律法规文件</t>
+  </si>
+  <si>
+    <t>el-icon-s-management</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>组织人员任免</t>
+  </si>
+  <si>
+    <t>el-icon-reading</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>人员档案维护</t>
+  </si>
+  <si>
+    <t>el-icon-user-solid</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>设备档案维护</t>
+  </si>
+  <si>
+    <t>el-icon-s-check</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>日常运行台账</t>
+  </si>
+  <si>
+    <t>el-icon-s-order</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>月度运行台账</t>
+  </si>
+  <si>
+    <t>el-icon-tickets</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>季度运行台账</t>
+  </si>
+  <si>
+    <t>el-icon-document</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>年度运行台账</t>
+  </si>
+  <si>
+    <t>el-icon-notebook-1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>安全活动台账</t>
+  </si>
+  <si>
+    <t>el-icon-notebook-2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>双控体系台账</t>
+  </si>
+  <si>
+    <t>el-icon-document-copy</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>事故报告处理</t>
+  </si>
+  <si>
+    <t>el-icon-collection-tag</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>其他情况记录</t>
+  </si>
+  <si>
+    <t>el-icon-s-data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +346,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,33 +541,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFDDDDDD"/>
+      <color rgb="00DDDDDD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,26 +938,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,23 +973,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,69 +1143,332 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD38"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/directory.xlsx
+++ b/src/main/resources/static/directory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -186,65 +186,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,39 +205,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +272,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -326,10 +295,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,13 +348,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +444,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,56 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,6 +567,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -630,25 +639,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1158,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>

--- a/src/main/resources/static/directory.xlsx
+++ b/src/main/resources/static/directory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>el-icon-s-data</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>模板管理</t>
   </si>
 </sst>
 </file>
@@ -168,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -189,11 +195,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,46 +302,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,82 +334,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,37 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,145 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,26 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,17 +578,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,22 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,16 +636,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,16 +663,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,115 +681,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1466,6 +1472,26 @@
         <v>130</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/static/directory.xlsx
+++ b/src/main/resources/static/directory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -64,31 +64,13 @@
     <t>el-icon-s-management</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>组织人员任免</t>
-  </si>
-  <si>
-    <t>el-icon-reading</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>人员档案维护</t>
+    <t>档案管理</t>
   </si>
   <si>
     <t>el-icon-user-solid</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>设备档案维护</t>
-  </si>
-  <si>
-    <t>el-icon-s-check</t>
   </si>
   <si>
     <t>7</t>
@@ -174,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -195,61 +177,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +241,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,62 +299,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,13 +336,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,169 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +527,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,6 +565,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +610,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,73 +627,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1269,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1289,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1309,14 +1291,14 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -1329,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1349,14 +1331,14 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
@@ -1369,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1389,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1409,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1429,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1440,7 +1422,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -1449,46 +1431,6 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
         <v>9000</v>
       </c>
     </row>
